--- a/src/predicciones/holt_winters/producto_3.xlsx
+++ b/src/predicciones/holt_winters/producto_3.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,682 +404,682 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44932</v>
       </c>
       <c r="B2">
-        <v>1.258058857398747</v>
+        <v>1.000051060562869</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44935</v>
       </c>
       <c r="B3">
-        <v>1.876735995677367</v>
+        <v>1.857481274059774</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44957</v>
       </c>
       <c r="B4">
-        <v>1.714361233710316</v>
+        <v>1.979657552622728</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44961</v>
       </c>
       <c r="B5">
-        <v>1.710616285648481</v>
+        <v>1.997082206179742</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44964</v>
       </c>
       <c r="B6">
-        <v>1.433677187304444</v>
+        <v>1.874795537293951</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44965</v>
       </c>
       <c r="B7">
-        <v>0.6153781047037757</v>
+        <v>1.000146400094208</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44990</v>
       </c>
       <c r="B8">
-        <v>1.151500335194424</v>
+        <v>1.000030438067122</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44992</v>
       </c>
       <c r="B9">
-        <v>1.259425468958233</v>
+        <v>0.9998902718047542</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44994</v>
       </c>
       <c r="B10">
-        <v>1.878102607236853</v>
+        <v>1.857320485301659</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44999</v>
       </c>
       <c r="B11">
-        <v>1.715727845269801</v>
+        <v>1.979496763864613</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>45001</v>
       </c>
       <c r="B12">
-        <v>1.711982897207967</v>
+        <v>1.996921417421627</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>45008</v>
       </c>
       <c r="B13">
-        <v>1.43504379886393</v>
+        <v>1.874634748535837</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>45011</v>
       </c>
       <c r="B14">
-        <v>0.6167447162632617</v>
+        <v>0.999985611336093</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>45012</v>
       </c>
       <c r="B15">
-        <v>1.15286694675391</v>
+        <v>0.9998696493090073</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>45022</v>
       </c>
       <c r="B16">
-        <v>1.260792080517718</v>
+        <v>0.9997294830466394</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>45030</v>
       </c>
       <c r="B17">
-        <v>1.879469218796339</v>
+        <v>1.857159696543545</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>45032</v>
       </c>
       <c r="B18">
-        <v>1.717094456829287</v>
+        <v>1.979335975106499</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>45050</v>
       </c>
       <c r="B19">
-        <v>1.713349508767452</v>
+        <v>1.996760628663512</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45051</v>
       </c>
       <c r="B20">
-        <v>1.436410410423416</v>
+        <v>1.874473959777722</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45073</v>
       </c>
       <c r="B21">
-        <v>0.6181113278227474</v>
+        <v>0.9998248225779782</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45076</v>
       </c>
       <c r="B22">
-        <v>1.154233558313396</v>
+        <v>0.9997088605508926</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45077</v>
       </c>
       <c r="B23">
-        <v>1.262158692077204</v>
+        <v>0.9995686942885247</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45081</v>
       </c>
       <c r="B24">
-        <v>1.880835830355825</v>
+        <v>1.85699890778543</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45087</v>
       </c>
       <c r="B25">
-        <v>1.718461068388773</v>
+        <v>1.979175186348384</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45093</v>
       </c>
       <c r="B26">
-        <v>1.714716120326938</v>
+        <v>1.996599839905397</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45096</v>
       </c>
       <c r="B27">
-        <v>1.437777021982902</v>
+        <v>1.874313171019607</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45099</v>
       </c>
       <c r="B28">
-        <v>0.6194779393822333</v>
+        <v>0.9996640338198632</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45106</v>
       </c>
       <c r="B29">
-        <v>1.155600169872882</v>
+        <v>0.9995480717927778</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45107</v>
       </c>
       <c r="B30">
-        <v>1.26352530363669</v>
+        <v>0.9994079055304099</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45108</v>
       </c>
       <c r="B31">
-        <v>1.88220244191531</v>
+        <v>1.856838119027315</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45113</v>
       </c>
       <c r="B32">
-        <v>1.719827679948259</v>
+        <v>1.979014397590269</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45120</v>
       </c>
       <c r="B33">
-        <v>1.716082731886424</v>
+        <v>1.996439051147282</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45134</v>
       </c>
       <c r="B34">
-        <v>1.439143633542388</v>
+        <v>1.874152382261492</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45139</v>
       </c>
       <c r="B35">
-        <v>0.620844550941719</v>
+        <v>0.9995032450617485</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45140</v>
       </c>
       <c r="B36">
-        <v>1.156966781432368</v>
+        <v>0.9993872830346631</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45144</v>
       </c>
       <c r="B37">
-        <v>1.264891915196176</v>
+        <v>0.9992471167722949</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45151</v>
       </c>
       <c r="B38">
-        <v>1.883569053474796</v>
+        <v>1.8566773302692</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45152</v>
       </c>
       <c r="B39">
-        <v>1.721194291507745</v>
+        <v>1.978853608832154</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45160</v>
       </c>
       <c r="B40">
-        <v>1.71744934344591</v>
+        <v>1.996278262389167</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45173</v>
       </c>
       <c r="B41">
-        <v>1.440510245101874</v>
+        <v>1.873991593503377</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45183</v>
       </c>
       <c r="B42">
-        <v>0.6222111625012049</v>
+        <v>0.9993424563036337</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45189</v>
       </c>
       <c r="B43">
-        <v>1.158333392991854</v>
+        <v>0.9992264942765481</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45201</v>
       </c>
       <c r="B44">
-        <v>1.266258526755662</v>
+        <v>0.9990863280141802</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45211</v>
       </c>
       <c r="B45">
-        <v>1.884935665034282</v>
+        <v>1.856516541511085</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45216</v>
       </c>
       <c r="B46">
-        <v>1.72256090306723</v>
+        <v>1.978692820074039</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45221</v>
       </c>
       <c r="B47">
-        <v>1.718815955005396</v>
+        <v>1.996117473631053</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45222</v>
       </c>
       <c r="B48">
-        <v>1.441876856661359</v>
+        <v>1.873830804745263</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45223</v>
       </c>
       <c r="B49">
-        <v>0.6235777740606906</v>
+        <v>0.9991816675455187</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45234</v>
       </c>
       <c r="B50">
-        <v>1.159700004551339</v>
+        <v>0.9990657055184333</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45240</v>
       </c>
       <c r="B51">
-        <v>1.267625138315148</v>
+        <v>0.9989255392560654</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45253</v>
       </c>
       <c r="B52">
-        <v>1.886302276593768</v>
+        <v>1.856355752752971</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45256</v>
       </c>
       <c r="B53">
-        <v>1.723927514626716</v>
+        <v>1.978532031315924</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45269</v>
       </c>
       <c r="B54">
-        <v>1.720182566564882</v>
+        <v>1.995956684872938</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45278</v>
       </c>
       <c r="B55">
-        <v>1.443243468220845</v>
+        <v>1.873670015987148</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45282</v>
       </c>
       <c r="B56">
-        <v>0.6249443856201765</v>
+        <v>0.999020878787404</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45289</v>
       </c>
       <c r="B57">
-        <v>1.161066616110825</v>
+        <v>0.9989049167603186</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45296</v>
       </c>
       <c r="B58">
-        <v>1.268991749874633</v>
+        <v>0.9987647504979507</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45308</v>
       </c>
       <c r="B59">
-        <v>1.887668888153254</v>
+        <v>1.856194963994856</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45309</v>
       </c>
       <c r="B60">
-        <v>1.725294126186202</v>
+        <v>1.97837124255781</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45321</v>
       </c>
       <c r="B61">
-        <v>1.721549178124367</v>
+        <v>1.995795896114823</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45323</v>
       </c>
       <c r="B62">
-        <v>1.444610079780331</v>
+        <v>1.873509227229033</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45330</v>
       </c>
       <c r="B63">
-        <v>0.6263109971796622</v>
+        <v>0.9988600900292892</v>
       </c>
       <c r="C63">
         <v>2</v>
